--- a/biology/Zoologie/Halgerda_carlsoni/Halgerda_carlsoni.xlsx
+++ b/biology/Zoologie/Halgerda_carlsoni/Halgerda_carlsoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halgerda carlsoni est une espèce de nudibranche du genre Halgerda. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer plus de 5 cm. 
 Le corps est massif, trapu et il n'y a pas de jupe. Le corps est couvert de tubercules de diverses tailles dont le sommet est orange à rouge et la base cerclée de blanc. 
@@ -547,10 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-Cette espèce se rencontre dans la zone tropicale ouest Pacifique, des côtes indonésiennes aux côtes philippines avec quelques observations de spécimens sur la côte orientale de l'Afrique. 
-Habitat
-Son habitat est la zone récifale externe sur les sommets ou sur les pentes jusqu'à la zone des 20 m de profondeur.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale ouest Pacifique, des côtes indonésiennes aux côtes philippines avec quelques observations de spécimens sur la côte orientale de l'Afrique. 
 </t>
         </is>
       </c>
@@ -576,15 +593,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la zone récifale externe sur les sommets ou sur les pentes jusqu'à la zone des 20 m de profondeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Halgerda_carlsoni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halgerda_carlsoni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentation
-Halgerda carlsoni se nourrit principalement d'éponges.
-Éthologie
-Cet Halgerda est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie de par la présence de glandes défensives réparties dans les tissus du corps.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halgerda carlsoni se nourrit principalement d'éponges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Halgerda_carlsoni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halgerda_carlsoni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éthologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet Halgerda est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie de par la présence de glandes défensives réparties dans les tissus du corps.
 </t>
         </is>
       </c>
